--- a/Models/TrainedModels/FCNNs/models.xlsx
+++ b/Models/TrainedModels/FCNNs/models.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72.31818181818181</v>
+        <v>74.38297872340425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5551222515377131</v>
+        <v>0.5391995640511208</v>
       </c>
     </row>
     <row r="3">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69.40909090909091</v>
+        <v>53.51063829787234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6064638170329008</v>
+        <v>0.7908255673469381</v>
       </c>
     </row>
     <row r="4">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72.63636363636364</v>
+        <v>69.27659574468085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5764982829039748</v>
+        <v>0.5631772152920986</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.09090909090909</v>
+        <v>68.29787234042553</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6067489588802512</v>
+        <v>0.6248090622272897</v>
       </c>
     </row>
   </sheetData>

--- a/Models/TrainedModels/FCNNs/models.xlsx
+++ b/Models/TrainedModels/FCNNs/models.xlsx
@@ -463,15 +463,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Leaky-4L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TrainedModels/FCNNs/FCNN4.pt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BinaryFCNN4(
+  (fc1): Linear(in_features=22, out_features=64, bias=True)
+  (fc2): Linear(in_features=64, out_features=128, bias=True)
+  (fc3): Linear(in_features=128, out_features=64, bias=True)
+  (fc4): Linear(in_features=64, out_features=32, bias=True)
+  (fc5): Linear(in_features=32, out_features=1, bias=True)
+  (leaky_relu): LeakyReLU(negative_slope=0.01)
+  (sigmoid): Sigmoid()
+  (dropout): Dropout(p=0.5, inplace=False)
+)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>75.65306122448979</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5895916466810265</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Leaky-Batch-3L</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>TrainedModels/FCNNs/FCNN1.pt</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>BinaryFCNN(
   (fc1): Linear(in_features=22, out_features=64, bias=True)
@@ -485,25 +517,25 @@
 )</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>74.38297872340425</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5391995640511208</v>
+      <c r="D3" t="n">
+        <v>72.63265306122449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5552540500553287</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Leaky-Batch-4L</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>TrainedModels/FCNNs/FCNN2.pt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>BinaryFCNN2(
   (fc1): Linear(in_features=22, out_features=64, bias=True)
@@ -521,25 +553,25 @@
 )</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>53.51063829787234</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7908255673469381</v>
+      <c r="D4" t="n">
+        <v>69.53061224489795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6157901572937868</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Leaky-3L</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>TrainedModels/FCNNs/FCNN3.pt</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>BinaryFCNN3(
   (fc1): Linear(in_features=22, out_features=64, bias=True)
@@ -551,43 +583,11 @@
 )</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>69.27659574468085</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5631772152920986</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Leaky-4L</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TrainedModels/FCNNs/FCNN4.pt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BinaryFCNN4(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=128, bias=True)
-  (fc3): Linear(in_features=128, out_features=64, bias=True)
-  (fc4): Linear(in_features=64, out_features=32, bias=True)
-  (fc5): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
-  (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.5, inplace=False)
-)</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>68.29787234042553</v>
+        <v>66.79591836734694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6248090622272897</v>
+        <v>0.5955619617384307</v>
       </c>
     </row>
   </sheetData>

--- a/Models/TrainedModels/FCNNs/models.xlsx
+++ b/Models/TrainedModels/FCNNs/models.xlsx
@@ -486,24 +486,54 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75.65306122448979</v>
+        <v>75.46938775510205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5895916466810265</v>
+        <v>0.5796442439361494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Leaky-3L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TrainedModels/FCNNs/FCNN3.pt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BinaryFCNN3(
+  (fc1): Linear(in_features=22, out_features=64, bias=True)
+  (fc2): Linear(in_features=64, out_features=32, bias=True)
+  (fc3): Linear(in_features=32, out_features=1, bias=True)
+  (leaky_relu): LeakyReLU(negative_slope=0.01)
+  (sigmoid): Sigmoid()
+  (dropout): Dropout(p=0.5, inplace=False)
+)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>73.20408163265306</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5775634658579923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Leaky-Batch-3L</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>TrainedModels/FCNNs/FCNN1.pt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>BinaryFCNN(
   (fc1): Linear(in_features=22, out_features=64, bias=True)
@@ -517,25 +547,25 @@
 )</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>72.63265306122449</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5552540500553287</v>
+      <c r="D4" t="n">
+        <v>71.10204081632654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5601658091253164</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Leaky-Batch-4L</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>TrainedModels/FCNNs/FCNN2.pt</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>BinaryFCNN2(
   (fc1): Linear(in_features=22, out_features=64, bias=True)
@@ -553,41 +583,11 @@
 )</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>69.53061224489795</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6157901572937868</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Leaky-3L</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TrainedModels/FCNNs/FCNN3.pt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BinaryFCNN3(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=32, bias=True)
-  (fc3): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
-  (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.5, inplace=False)
-)</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>66.79591836734694</v>
+        <v>65.73469387755102</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5955619617384307</v>
+        <v>0.6491159565594732</v>
       </c>
     </row>
   </sheetData>

--- a/Models/TrainedModels/FCNNs/models.xlsx
+++ b/Models/TrainedModels/FCNNs/models.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,131 +463,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Leaky-4L</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TrainedModels/FCNNs/FCNN4.pt</t>
+          <t>TrainedModels/Recurrents/RNN.pt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BinaryFCNN4(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=128, bias=True)
-  (fc3): Linear(in_features=128, out_features=64, bias=True)
-  (fc4): Linear(in_features=64, out_features=32, bias=True)
-  (fc5): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
+          <t>BinaryRNN(
+  (fc): Linear(in_features=22, out_features=256, bias=True)
+  (recursive_layers): Sequential(
+    (0): SimpleRNN(
+      (RNN): RNN(256, 256, batch_first=True)
+      (layer_norm): LayerNorm((256,), eps=1e-05, elementwise_affine=True)
+      (dropout): Dropout(p=0.5, inplace=False)
+      (gelu): GELU(approximate='none')
+    )
+    (1): SimpleRNN(
+      (RNN): RNN(256, 256)
+      (layer_norm): LayerNorm((256,), eps=1e-05, elementwise_affine=True)
+      (dropout): Dropout(p=0.5, inplace=False)
+      (gelu): GELU(approximate='none')
+    )
+  )
+  (fc1): Linear(in_features=256, out_features=22, bias=True)
+  (batchnorm): BatchNorm1d(22, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (gelu): GELU(approximate='none')
+  (dropout): Dropout(p=0.5, inplace=False)
+  (fc2): Linear(in_features=22, out_features=1, bias=True)
   (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.5, inplace=False)
 )</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75.46938775510205</v>
+        <v>74.70588235294117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5796442439361494</v>
+        <v>0.6014218797870711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Leaky-3L</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TrainedModels/FCNNs/FCNN3.pt</t>
+          <t>TrainedModels/Recurrents/LSTM.pt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BinaryFCNN3(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=32, bias=True)
-  (fc3): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
+          <t>BinaryLSTM(
+  (lstm1): LSTM(22, 22, batch_first=True)
+  (fc1): Linear(in_features=22, out_features=6, bias=True)
+  (fc2): Linear(in_features=6, out_features=1, bias=True)
+  (leaky): LeakyReLU(negative_slope=0.01)
+  (batchnorm): BatchNorm1d(6, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
+  (dropout): Dropout(p=0.5, inplace=False)
   (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.5, inplace=False)
 )</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73.20408163265306</v>
+        <v>45.84313725490196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5775634658579923</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Leaky-Batch-3L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TrainedModels/FCNNs/FCNN1.pt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BinaryFCNN(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=32, bias=True)
-  (fc3): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
-  (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.5, inplace=False)
-  (bn1): BatchNorm1d(64, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-  (bn2): BatchNorm1d(32, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-)</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>71.10204081632654</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5601658091253164</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Leaky-Batch-4L</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TrainedModels/FCNNs/FCNN2.pt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BinaryFCNN2(
-  (fc1): Linear(in_features=22, out_features=64, bias=True)
-  (fc2): Linear(in_features=64, out_features=128, bias=True)
-  (fc3): Linear(in_features=128, out_features=64, bias=True)
-  (fc4): Linear(in_features=64, out_features=32, bias=True)
-  (fc5): Linear(in_features=32, out_features=1, bias=True)
-  (leaky_relu): LeakyReLU(negative_slope=0.01)
-  (sigmoid): Sigmoid()
-  (dropout): Dropout(p=0.2, inplace=False)
-  (bn1): BatchNorm1d(64, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-  (bn2): BatchNorm1d(128, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-  (bn3): BatchNorm1d(64, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-  (bn4): BatchNorm1d(32, eps=1e-05, momentum=0.1, affine=True, track_running_stats=True)
-)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>65.73469387755102</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6491159565594732</v>
+        <v>0.7744480955834482</v>
       </c>
     </row>
   </sheetData>
